--- a/ipl/Rajasthan Royals/Jos Buttler.xlsx
+++ b/ipl/Rajasthan Royals/Jos Buttler.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,9 +489,212 @@
         <v>18th Match (N), Wankhede, April 24, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Jos Buttler</v>
+      </c>
+      <c r="B4" t="str">
+        <v>5</v>
+      </c>
+      <c r="C4" t="str">
+        <v>7</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>71.42</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Royals won by 6 wickets (with 7 balls remaining)</v>
+      </c>
+      <c r="I4" t="str">
+        <v>18th Match (N), Wankhede, April 24, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Jos Buttler</v>
+      </c>
+      <c r="B5" t="str">
+        <v>41</v>
+      </c>
+      <c r="C5" t="str">
+        <v>32</v>
+      </c>
+      <c r="D5" t="str">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <v>128.12</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Mumbai won by 7 wickets (with 9 balls remaining)</v>
+      </c>
+      <c r="I5" t="str">
+        <v>24th Match (D/N), Delhi, April 29, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Jos Buttler</v>
+      </c>
+      <c r="B6" t="str">
+        <v>49</v>
+      </c>
+      <c r="C6" t="str">
+        <v>35</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2</v>
+      </c>
+      <c r="F6" t="str">
+        <v>140.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Super Kings won by 45 runs</v>
+      </c>
+      <c r="I6" t="str">
+        <v>12th Match (N), Wankhede, April 19, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Jos Buttler</v>
+      </c>
+      <c r="B7" t="str">
+        <v>124</v>
+      </c>
+      <c r="C7" t="str">
+        <v>64</v>
+      </c>
+      <c r="D7" t="str">
+        <v>11</v>
+      </c>
+      <c r="E7" t="str">
+        <v>8</v>
+      </c>
+      <c r="F7" t="str">
+        <v>193.75</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Royals won by 55 runs</v>
+      </c>
+      <c r="I7" t="str">
+        <v>28th Match (D/N), Delhi, May 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Jos Buttler</v>
+      </c>
+      <c r="B8" t="str">
+        <v>8</v>
+      </c>
+      <c r="C8" t="str">
+        <v>8</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H8" t="str">
+        <v>RCB won by 10 wickets (with 21 balls remaining)</v>
+      </c>
+      <c r="I8" t="str">
+        <v>16th Match (N), Wankhede, April 22, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Jos Buttler</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>28.57</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Royals won by 3 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I9" t="str">
+        <v>7th Match (N), Wankhede, April 15, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Jos Buttler</v>
+      </c>
+      <c r="B10" t="str">
+        <v>25</v>
+      </c>
+      <c r="C10" t="str">
+        <v>13</v>
+      </c>
+      <c r="D10" t="str">
+        <v>5</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>192.30</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Punjab Kings won by 4 runs</v>
+      </c>
+      <c r="I10" t="str">
+        <v>4th Match (N), Wankhede, April 12, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
 </worksheet>
 </file>